--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_274.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_274.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_23</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_86</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.01951013513513514</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb', 'F:7']]</t>
-        </is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_226</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb', 'F:7']]</t>
+          <t>[['D', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(15.25, 22.53)]</t>
+          <t>[['A', 'E', 'E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(14.59, 15.31)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:32.351768', '0:00:40.095623')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:16.759569', '0:00:29.414444')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5111111111111111</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0945054945054945</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C', 'F']]</t>
+          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj'], ['C:7', 'F:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(138.8, 145.8)]</t>
+          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B'], ['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(16.17907, 23.725555)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:17.840000', '0:00:26.980000'), ('0:01:06.040000', '0:01:08.540000'), ('0:01:08.040000', '0:01:14.940000'), ('0:01:08.540000', '0:01:19')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:54.400000', '0:01:01.440000'), ('0:00:58.560000', '0:01:02.900000'), ('0:01:08.820000', '0:01:17.920000'), ('0:00:07.460000', '0:00:13.640000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07542426147077311</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>jaah_22</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1018716577540107</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
+          <t>[['Bb', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[['A', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
+          <t>[('0:01:06.740000', '0:01:12.500000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:28.583470', '0:01:33.575761')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_59</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2848837209302326</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['F#/5', 'C#', 'F#/5'], ['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(1.16, 19.2), (49.08, 68.32)]</t>
+          <t>[['C/5', 'G', 'C'], ['G', 'C', 'G/3']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0.62, 26.6), (70.16, 96.1)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:01:00.391566', '0:02:07.006105'), ('0:00:31.469410', '0:01:58.925813')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:27.476822', '0:00:35.056893'), ('0:00:18.826145', '0:00:26.430680')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.217032967032967</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2153846153846154</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'E:min7', 'A:7', 'D']]</t>
+          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(71.4, 80.18)]</t>
+          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(26.25, 38.856)]</t>
+          <t>[('0:01:26.260000', '0:01:32.700000'), ('0:01:58.180000', '0:02:03.040000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:55.560000', '0:02:04.800000'), ('0:00:22.400000', '0:00:31.860000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4363636363636363</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_46</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_23</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02147177419354838</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Eb:7', 'Bb:7']]</t>
-        </is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4333333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:7', 'Eb:7', 'Bb:7']]</t>
+          <t>[['Ab', 'Db', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(15.47, 20.95)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(20.12, 27.32)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:03.129454', '0:00:05.822970')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_77</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.196875</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E', 'F#', 'B']]</t>
-        </is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4393939393939393</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C/3', 'D', 'G']]</t>
+          <t>[['G', 'D', 'C', 'G', 'D', 'C']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(1.256247, 24.290442)]</t>
+          <t>[['G', 'D', 'C', 'G', 'D', 'C']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(18.877585, 24.470647)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+          <t>[('0:01:46.460467', '0:01:56.154798')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:54.324910', '0:01:07.351305')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1902173913043478</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(12.921927, 21.908049)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(45.48, 48.0)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_39</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.04362486828240253</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj'], ['D:7', 'G:maj', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Eb:7', 'Ab', 'Db']]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(9.14, 16.64), (20.24, 26.72)]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(34.65, 37.76), (131.61, 134.27)]</t>
+          <t>[('0:01:40.740000', '0:02:01.400000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:27.160000', '0:00:38.460000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1357370095440085</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(49.61, 56.99)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(19.36, 22.38)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:58.680000', '0:01:20.420000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:10.840000', '0:01:35.200000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2073732718894009</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G/5', 'D', 'G/5', 'D']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(37.738798, 43.706326)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(21.391, 26.25)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:02:30.200000', '0:02:34.940000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:02:41.980000', '0:02:46.620000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_192</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_51</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1019736842105263</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'C']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(75.355124, 80.742154)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(25.687641, 32.084739)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:57.920000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(53.12, 74.3)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(66.74, 90.22)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:57.920000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1350574712643678</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(69.36, 73.2)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(8.413696, 11.072593)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:02:30.160000', '0:02:34.940000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:02:41.980000', '0:02:46.620000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_297</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_30</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07894736842105263</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D', 'E', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(18.675377, 23.261318)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(1.921537, 5.694779)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
